--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>717412.8480430837</v>
+        <v>712950.4927944671</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29959794.11825921</v>
+        <v>29959794.11825922</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.807001651</v>
+        <v>7197684.807001652</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5082939.560319281</v>
+        <v>5082939.560319282</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>65.65924894226259</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9684186302134</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574161</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0460627746974</v>
+        <v>104.2387266596398</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>155.840188737579</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>388.0912609771211</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>38.12187980950477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.63925332857657</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I16" t="n">
         <v>71.60381629275079</v>
@@ -1815,10 +1815,10 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>15.38273651492244</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
         <v>277.3333288037839</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>155.7034593709913</v>
       </c>
       <c r="U17" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>256.0638653009494</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>122.449235253997</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>83.88136601429662</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S19" t="n">
         <v>152.6902671187685</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1891846824348971</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T20" t="n">
         <v>209.9003444702288</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>111.335375347968</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2250,10 +2250,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>129.6188100538949</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3333288037839</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>230.0069912545333</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1891846824353403</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>5.682671713000495</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H24" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T24" t="n">
         <v>136.1178674008418</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.5515002632432</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.6902671187685</v>
@@ -2532,7 +2532,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3333288037839</v>
+        <v>221.5669603154906</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>131.5131082916975</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>30.09620007959843</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H27" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>47.11713590848451</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S28" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.0460627746974</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>144.2148659166915</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.9614824174288</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>132.0390761436148</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H30" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>159.1341426378086</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.2279575867316</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>342.5835451603705</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>149.7997260763399</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H32" t="n">
         <v>274.2645523750966</v>
@@ -3082,7 +3082,7 @@
         <v>57.43123191120421</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
         <v>255.6102460520883</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H33" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>68.62273211671437</v>
+        <v>31.20528328733591</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.0460627746974</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.6818539030116</v>
+        <v>133.7057246898075</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3362,7 +3362,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H36" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>107.1859168092707</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>186.2456436776078</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.286863130098176</v>
+        <v>60.30457307582154</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H39" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>5.560066947440118</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>139.7562705298298</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>123.1560133338652</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>172.9678571630129</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3836,7 +3836,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H42" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3915,10 +3915,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V43" t="n">
-        <v>59.99554525847427</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>54.81210906375315</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>67.81238296595643</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.2645523750966</v>
+        <v>70.78145637534304</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H45" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T45" t="n">
         <v>136.1178674008418</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.6902671187685</v>
@@ -4191,7 +4191,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U46" t="n">
-        <v>231.731668544234</v>
+        <v>181.6522517462001</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>747.7234201554716</v>
+        <v>872.6358484954912</v>
       </c>
       <c r="C11" t="n">
-        <v>747.7234201554716</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="D11" t="n">
-        <v>747.7234201554716</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="E11" t="n">
         <v>445.7351185087913</v>
@@ -5038,22 +5038,22 @@
         <v>43.4303270258102</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672865</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873432</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1044354144766</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M11" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N11" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O11" t="n">
         <v>1651.903250255482</v>
@@ -5068,25 +5068,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S11" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T11" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U11" t="n">
-        <v>1913.324183561128</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V11" t="n">
-        <v>1555.834768687377</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="W11" t="n">
-        <v>1159.443418987724</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="X11" t="n">
-        <v>747.7234201554716</v>
+        <v>1344.295592219654</v>
       </c>
       <c r="Y11" t="n">
-        <v>747.7234201554716</v>
+        <v>938.9583221745444</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>43.4303270258102</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K12" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L12" t="n">
-        <v>503.9498672632497</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M12" t="n">
-        <v>751.3795283885235</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.366492570713</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P12" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R12" t="n">
         <v>1815.841701345204</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.144475277052</v>
+        <v>760.6194965566763</v>
       </c>
       <c r="C13" t="n">
-        <v>918.171912155968</v>
+        <v>588.6469334355922</v>
       </c>
       <c r="D13" t="n">
-        <v>754.8551392827387</v>
+        <v>588.6469334355922</v>
       </c>
       <c r="E13" t="n">
         <v>588.6469334355922</v>
@@ -5199,22 +5199,22 @@
         <v>43.4303270258102</v>
       </c>
       <c r="J13" t="n">
-        <v>86.23013562371111</v>
+        <v>161.6313676087424</v>
       </c>
       <c r="K13" t="n">
-        <v>169.3817649716271</v>
+        <v>244.7829969566585</v>
       </c>
       <c r="L13" t="n">
-        <v>441.3248648131718</v>
+        <v>356.0481465445993</v>
       </c>
       <c r="M13" t="n">
-        <v>972.7033159811492</v>
+        <v>887.4265977125767</v>
       </c>
       <c r="N13" t="n">
-        <v>1089.021092194643</v>
+        <v>1401.777296767951</v>
       </c>
       <c r="O13" t="n">
-        <v>1570.860832459528</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P13" t="n">
         <v>1969.627016373227</v>
@@ -5223,28 +5223,28 @@
         <v>2171.51635129051</v>
       </c>
       <c r="R13" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281379</v>
+        <v>2066.224708199965</v>
       </c>
       <c r="U13" t="n">
-        <v>1771.834171281379</v>
+        <v>1786.090032640587</v>
       </c>
       <c r="V13" t="n">
-        <v>1490.122703889407</v>
+        <v>1504.378565248616</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.708371831247</v>
+        <v>1229.526161421129</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.144475277052</v>
+        <v>986.9622648669342</v>
       </c>
       <c r="Y13" t="n">
-        <v>1090.144475277052</v>
+        <v>760.6194965566763</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.442168266939</v>
+        <v>1288.319371589017</v>
       </c>
       <c r="C14" t="n">
-        <v>746.442168266939</v>
+        <v>861.4186416023174</v>
       </c>
       <c r="D14" t="n">
-        <v>746.442168266939</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E14" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F14" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H14" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J14" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144764</v>
+        <v>721.104435414476</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P14" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q14" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R14" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="S14" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T14" t="n">
-        <v>1959.495801320582</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U14" t="n">
-        <v>1920.988852018052</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V14" t="n">
-        <v>1563.499437144301</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.499437144301</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X14" t="n">
-        <v>1151.779438312049</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.442168266939</v>
+        <v>1708.167735880547</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H15" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I15" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J15" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K15" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L15" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M15" t="n">
-        <v>751.3795283885233</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N15" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O15" t="n">
-        <v>1238.571138752467</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P15" t="n">
-        <v>1420.724503098659</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q15" t="n">
         <v>1667.589004942817</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.488632935958</v>
+        <v>414.7574662834443</v>
       </c>
       <c r="C16" t="n">
-        <v>782.488632935958</v>
+        <v>414.7574662834443</v>
       </c>
       <c r="D16" t="n">
-        <v>619.1718600627287</v>
+        <v>251.440693410215</v>
       </c>
       <c r="E16" t="n">
-        <v>452.9636542155822</v>
+        <v>251.440693410215</v>
       </c>
       <c r="F16" t="n">
-        <v>281.1018799901426</v>
+        <v>251.440693410215</v>
       </c>
       <c r="G16" t="n">
-        <v>115.7574141902049</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H16" t="n">
         <v>115.7574141902049</v>
       </c>
       <c r="I16" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371109</v>
       </c>
       <c r="K16" t="n">
-        <v>247.303481619848</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L16" t="n">
-        <v>441.324864813172</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M16" t="n">
-        <v>972.7033159811494</v>
+        <v>774.8787788558886</v>
       </c>
       <c r="N16" t="n">
-        <v>1089.021092194644</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O16" t="n">
-        <v>1570.860832459529</v>
+        <v>1771.069218176148</v>
       </c>
       <c r="P16" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q16" t="n">
         <v>2171.51635129051</v>
@@ -5463,25 +5463,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S16" t="n">
-        <v>2165.507231779829</v>
+        <v>2149.969114087988</v>
       </c>
       <c r="T16" t="n">
-        <v>2165.507231779829</v>
+        <v>1910.528646638799</v>
       </c>
       <c r="U16" t="n">
-        <v>1885.372556220451</v>
+        <v>1630.393971079421</v>
       </c>
       <c r="V16" t="n">
-        <v>1603.66108882848</v>
+        <v>1348.68250368745</v>
       </c>
       <c r="W16" t="n">
-        <v>1328.808685000993</v>
+        <v>1073.830099859963</v>
       </c>
       <c r="X16" t="n">
-        <v>1086.244788446798</v>
+        <v>831.2662033057679</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.9020201365404</v>
+        <v>604.92343499551</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>891.8471296514097</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="C17" t="n">
-        <v>891.8471296514097</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="D17" t="n">
-        <v>468.55450883641</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E17" t="n">
-        <v>468.55450883641</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="F17" t="n">
         <v>43.4303270258102</v>
@@ -5512,22 +5512,22 @@
         <v>43.4303270258102</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J17" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K17" t="n">
         <v>444.398509887343</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M17" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N17" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O17" t="n">
         <v>1651.903250255482</v>
@@ -5542,25 +5542,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S17" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T17" t="n">
-        <v>2171.51635129051</v>
+        <v>1956.228784338797</v>
       </c>
       <c r="U17" t="n">
-        <v>1913.324183561128</v>
+        <v>1698.036616609415</v>
       </c>
       <c r="V17" t="n">
-        <v>1555.834768687377</v>
+        <v>1698.036616609415</v>
       </c>
       <c r="W17" t="n">
-        <v>1297.184399696519</v>
+        <v>1301.645266909762</v>
       </c>
       <c r="X17" t="n">
-        <v>1297.184399696519</v>
+        <v>1301.645266909762</v>
       </c>
       <c r="Y17" t="n">
-        <v>891.8471296514097</v>
+        <v>896.3079968646525</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>87.60571275360323</v>
       </c>
       <c r="J18" t="n">
-        <v>383.1970525392668</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K18" t="n">
-        <v>533.2819540266169</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L18" t="n">
-        <v>742.6170386413064</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M18" t="n">
-        <v>990.0466997665801</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P18" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R18" t="n">
         <v>1815.841701345204</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>502.4057592362821</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="C19" t="n">
-        <v>330.4331961151981</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="D19" t="n">
-        <v>167.1164232419688</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="E19" t="n">
-        <v>167.1164232419688</v>
+        <v>300.0207537909433</v>
       </c>
       <c r="F19" t="n">
-        <v>43.4303270258102</v>
+        <v>128.1589795655038</v>
       </c>
       <c r="G19" t="n">
         <v>43.4303270258102</v>
@@ -5673,22 +5673,22 @@
         <v>43.4303270258102</v>
       </c>
       <c r="J19" t="n">
-        <v>86.23013562371111</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K19" t="n">
-        <v>416.6643740856492</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L19" t="n">
-        <v>904.318417264755</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M19" t="n">
-        <v>1435.696868432733</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N19" t="n">
-        <v>1552.014644646227</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O19" t="n">
-        <v>1722.234329837428</v>
+        <v>1806.902374335766</v>
       </c>
       <c r="P19" t="n">
         <v>2121.000513751126</v>
@@ -5718,7 +5718,7 @@
         <v>692.5717279483478</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.5717279483478</v>
+        <v>466.2289596380898</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>468.55450883641</v>
+        <v>1173.342898253639</v>
       </c>
       <c r="C20" t="n">
-        <v>468.55450883641</v>
+        <v>746.442168266939</v>
       </c>
       <c r="D20" t="n">
-        <v>468.55450883641</v>
+        <v>746.442168266939</v>
       </c>
       <c r="E20" t="n">
-        <v>468.55450883641</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J20" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922994</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M20" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P20" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S20" t="n">
-        <v>2113.505005925656</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T20" t="n">
-        <v>1901.484455955728</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U20" t="n">
-        <v>1643.292288226346</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V20" t="n">
-        <v>1285.802873352595</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.802873352595</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="X20" t="n">
-        <v>874.0828745203428</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="Y20" t="n">
-        <v>468.7456044752331</v>
+        <v>1173.342898253639</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.953436070884</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C21" t="n">
-        <v>481.4475325883888</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D21" t="n">
-        <v>377.6075741036738</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E21" t="n">
-        <v>272.905640376611</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F21" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954512</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919137</v>
+        <v>64.14840690919139</v>
       </c>
       <c r="J21" t="n">
-        <v>144.52988116121</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K21" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L21" t="n">
-        <v>503.9498672632495</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M21" t="n">
-        <v>751.3795283885232</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N21" t="n">
         <v>1246.366492570714</v>
@@ -5849,7 +5849,7 @@
         <v>1477.238310130523</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476715</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q21" t="n">
         <v>1773.044505227723</v>
@@ -5870,13 +5870,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W21" t="n">
-        <v>1031.050680370991</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X21" t="n">
-        <v>867.5733341376543</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.8804454909467</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.9278688672699</v>
+        <v>675.7451709351558</v>
       </c>
       <c r="C22" t="n">
-        <v>372.9553057461859</v>
+        <v>675.7451709351558</v>
       </c>
       <c r="D22" t="n">
-        <v>209.6385328729566</v>
+        <v>512.4283980619265</v>
       </c>
       <c r="E22" t="n">
-        <v>43.43032702581019</v>
+        <v>346.22019221478</v>
       </c>
       <c r="F22" t="n">
-        <v>43.43032702581019</v>
+        <v>174.3584179893404</v>
       </c>
       <c r="G22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J22" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K22" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L22" t="n">
-        <v>734.9575247989537</v>
+        <v>507.4216439224984</v>
       </c>
       <c r="M22" t="n">
-        <v>852.8004955041094</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N22" t="n">
-        <v>1367.151194559484</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779828</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281378</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722</v>
+        <v>1891.381675731132</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.988028330029</v>
+        <v>1609.670208339161</v>
       </c>
       <c r="W22" t="n">
-        <v>977.6577341335304</v>
+        <v>1334.817804511674</v>
       </c>
       <c r="X22" t="n">
-        <v>735.0938375793355</v>
+        <v>1092.253907957479</v>
       </c>
       <c r="Y22" t="n">
-        <v>735.0938375793355</v>
+        <v>865.9111396472215</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>468.7456044752336</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="C23" t="n">
-        <v>468.7456044752336</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="D23" t="n">
-        <v>468.7456044752336</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="E23" t="n">
-        <v>468.7456044752336</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F23" t="n">
-        <v>43.62142266463377</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G23" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H23" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672865</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J23" t="n">
         <v>226.1880352922992</v>
@@ -5995,46 +5995,46 @@
         <v>444.3985098873429</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144761</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M23" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N23" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O23" t="n">
         <v>1651.903250255482</v>
       </c>
       <c r="P23" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q23" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R23" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S23" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T23" t="n">
-        <v>1901.484455955729</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U23" t="n">
-        <v>1643.292288226346</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V23" t="n">
-        <v>1285.802873352596</v>
+        <v>2107.764933488284</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.802873352596</v>
+        <v>2107.764933488284</v>
       </c>
       <c r="X23" t="n">
-        <v>874.0828745203432</v>
+        <v>1696.044934656031</v>
       </c>
       <c r="Y23" t="n">
-        <v>468.7456044752336</v>
+        <v>1290.707664610921</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G24" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H24" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J24" t="n">
-        <v>383.1970525392674</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K24" t="n">
-        <v>533.2819540266173</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L24" t="n">
-        <v>742.6170386413067</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M24" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O24" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P24" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R24" t="n">
         <v>1815.841701345204</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>502.4057592362817</v>
+        <v>580.9656721305907</v>
       </c>
       <c r="C25" t="n">
-        <v>502.4057592362817</v>
+        <v>580.9656721305907</v>
       </c>
       <c r="D25" t="n">
-        <v>380.6365670511875</v>
+        <v>417.6488992573614</v>
       </c>
       <c r="E25" t="n">
-        <v>380.6365670511875</v>
+        <v>251.440693410215</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7747928257479</v>
+        <v>251.440693410215</v>
       </c>
       <c r="G25" t="n">
-        <v>43.43032702581019</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H25" t="n">
-        <v>43.43032702581019</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I25" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J25" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K25" t="n">
-        <v>247.3034816198479</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L25" t="n">
-        <v>456.827422434113</v>
+        <v>904.318417264755</v>
       </c>
       <c r="M25" t="n">
-        <v>574.6703931392688</v>
+        <v>1022.161387969911</v>
       </c>
       <c r="N25" t="n">
-        <v>1089.021092194643</v>
+        <v>1138.479164183405</v>
       </c>
       <c r="O25" t="n">
-        <v>1570.860832459528</v>
+        <v>1620.31890444829</v>
       </c>
       <c r="P25" t="n">
-        <v>1969.627016373226</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q25" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R25" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T25" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.699495722</v>
+        <v>1554.038280372373</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.988028330029</v>
+        <v>1272.326812980401</v>
       </c>
       <c r="W25" t="n">
-        <v>935.1356245025422</v>
+        <v>997.4744091529144</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5717279483473</v>
+        <v>997.4744091529144</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.5717279483473</v>
+        <v>771.1316408426565</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>876.5993727567636</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="C26" t="n">
-        <v>876.5993727567636</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D26" t="n">
-        <v>453.3067519417639</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E26" t="n">
-        <v>453.3067519417639</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F26" t="n">
-        <v>453.3067519417639</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G26" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H26" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J26" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K26" t="n">
-        <v>444.3985098873428</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L26" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M26" t="n">
         <v>1034.139376672043</v>
@@ -6244,34 +6244,34 @@
         <v>1651.903250255481</v>
       </c>
       <c r="P26" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q26" t="n">
-        <v>2080.956330428337</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R26" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S26" t="n">
-        <v>2113.505005925656</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T26" t="n">
-        <v>2113.505005925656</v>
+        <v>2141.116149189905</v>
       </c>
       <c r="U26" t="n">
-        <v>2113.505005925656</v>
+        <v>2141.116149189905</v>
       </c>
       <c r="V26" t="n">
-        <v>2113.505005925656</v>
+        <v>2141.116149189905</v>
       </c>
       <c r="W26" t="n">
-        <v>2113.505005925656</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="X26" t="n">
-        <v>1701.785007093403</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="Y26" t="n">
-        <v>1296.447737048294</v>
+        <v>1744.724799490252</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>598.953436070884</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C27" t="n">
-        <v>481.4475325883888</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D27" t="n">
-        <v>377.6075741036738</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E27" t="n">
-        <v>272.905640376611</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F27" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G27" t="n">
-        <v>86.29446917954512</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H27" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I27" t="n">
-        <v>64.14840690919135</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J27" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K27" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L27" t="n">
-        <v>503.9498672632494</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M27" t="n">
-        <v>751.379528388523</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N27" t="n">
-        <v>1007.699321192656</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O27" t="n">
-        <v>1238.571138752466</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P27" t="n">
-        <v>1553.93617419181</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q27" t="n">
         <v>1667.589004942817</v>
@@ -6344,13 +6344,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W27" t="n">
-        <v>1031.050680370991</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X27" t="n">
-        <v>867.5733341376543</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y27" t="n">
-        <v>727.8804454909467</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.9553057461859</v>
+        <v>899.2022488397376</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9553057461859</v>
+        <v>727.2296857186536</v>
       </c>
       <c r="D28" t="n">
-        <v>209.6385328729566</v>
+        <v>563.9129128454243</v>
       </c>
       <c r="E28" t="n">
-        <v>43.43032702581018</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F28" t="n">
-        <v>43.43032702581018</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G28" t="n">
-        <v>43.43032702581018</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I28" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J28" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K28" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L28" t="n">
-        <v>358.5686312077886</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M28" t="n">
-        <v>889.9470823757661</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N28" t="n">
-        <v>1404.29778143114</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O28" t="n">
-        <v>1570.860832459527</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373225</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q28" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R28" t="n">
-        <v>2165.507231779828</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730566</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T28" t="n">
-        <v>1771.834171281377</v>
+        <v>1926.066764330639</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495721999</v>
+        <v>1645.932088771262</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.988028330028</v>
+        <v>1364.22062137929</v>
       </c>
       <c r="W28" t="n">
-        <v>935.1356245025413</v>
+        <v>1089.368217551803</v>
       </c>
       <c r="X28" t="n">
-        <v>789.4640427685094</v>
+        <v>1089.368217551803</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.1212744582515</v>
+        <v>1089.368217551803</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1298.612788347634</v>
+        <v>1708.167735880547</v>
       </c>
       <c r="C29" t="n">
-        <v>871.7120583609337</v>
+        <v>1281.267005893847</v>
       </c>
       <c r="D29" t="n">
-        <v>871.7120583609337</v>
+        <v>1281.267005893847</v>
       </c>
       <c r="E29" t="n">
-        <v>445.7351185087913</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="F29" t="n">
-        <v>445.7351185087913</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G29" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H29" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J29" t="n">
         <v>226.1880352922992</v>
@@ -6481,34 +6481,34 @@
         <v>1651.903250255481</v>
       </c>
       <c r="P29" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312369</v>
       </c>
       <c r="Q29" t="n">
         <v>2080.956330428338</v>
       </c>
       <c r="R29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="S29" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="T29" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="U29" t="n">
-        <v>1913.324183561127</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="V29" t="n">
-        <v>1913.324183561127</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.324183561127</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="X29" t="n">
-        <v>1501.604184728875</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="Y29" t="n">
-        <v>1501.604184728875</v>
+        <v>1708.167735880547</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>598.9534360708841</v>
+        <v>598.953436070884</v>
       </c>
       <c r="C30" t="n">
-        <v>481.4475325883889</v>
+        <v>481.4475325883888</v>
       </c>
       <c r="D30" t="n">
-        <v>377.6075741036739</v>
+        <v>377.6075741036738</v>
       </c>
       <c r="E30" t="n">
-        <v>272.9056403766111</v>
+        <v>272.905640376611</v>
       </c>
       <c r="F30" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G30" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954512</v>
       </c>
       <c r="H30" t="n">
         <v>43.43032702581019</v>
@@ -6542,28 +6542,28 @@
         <v>64.14840690919137</v>
       </c>
       <c r="J30" t="n">
-        <v>144.52988116121</v>
+        <v>383.1970525392669</v>
       </c>
       <c r="K30" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632494</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M30" t="n">
-        <v>751.379528388523</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N30" t="n">
-        <v>1007.699321192656</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O30" t="n">
-        <v>1238.571138752466</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P30" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476715</v>
       </c>
       <c r="Q30" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R30" t="n">
         <v>1815.841701345204</v>
@@ -6581,13 +6581,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W30" t="n">
-        <v>1031.050680370992</v>
+        <v>1031.050680370991</v>
       </c>
       <c r="X30" t="n">
-        <v>867.5733341376545</v>
+        <v>867.5733341376543</v>
       </c>
       <c r="Y30" t="n">
-        <v>727.8804454909468</v>
+        <v>727.8804454909467</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.6694270872787</v>
+        <v>851.6091822655109</v>
       </c>
       <c r="C31" t="n">
-        <v>533.6968639661947</v>
+        <v>679.6366191444268</v>
       </c>
       <c r="D31" t="n">
-        <v>370.3800910929654</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="E31" t="n">
-        <v>204.1718852458189</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F31" t="n">
-        <v>43.43032702581019</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G31" t="n">
-        <v>43.43032702581019</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H31" t="n">
         <v>43.43032702581019</v>
@@ -6621,52 +6621,52 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J31" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K31" t="n">
-        <v>494.5860907338699</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L31" t="n">
-        <v>819.0271891163749</v>
+        <v>507.4216439224975</v>
       </c>
       <c r="M31" t="n">
-        <v>1350.405640284352</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N31" t="n">
-        <v>1466.723416497847</v>
+        <v>1553.150794145849</v>
       </c>
       <c r="O31" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410734</v>
       </c>
       <c r="P31" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q31" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="R31" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="S31" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="T31" t="n">
-        <v>2011.274638730567</v>
+        <v>2067.245687061487</v>
       </c>
       <c r="U31" t="n">
-        <v>1731.13996317119</v>
+        <v>2067.245687061487</v>
       </c>
       <c r="V31" t="n">
-        <v>1449.428495779219</v>
+        <v>1785.534219669516</v>
       </c>
       <c r="W31" t="n">
-        <v>1174.576091951732</v>
+        <v>1510.681815842029</v>
       </c>
       <c r="X31" t="n">
-        <v>932.0121953975366</v>
+        <v>1268.117919287834</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.6694270872787</v>
+        <v>1041.775150977576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1092.486153277414</v>
+        <v>874.0828745203432</v>
       </c>
       <c r="C32" t="n">
-        <v>746.4421682669391</v>
+        <v>874.0828745203432</v>
       </c>
       <c r="D32" t="n">
-        <v>746.4421682669391</v>
+        <v>874.0828745203432</v>
       </c>
       <c r="E32" t="n">
-        <v>320.4652284147967</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F32" t="n">
-        <v>320.4652284147967</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G32" t="n">
         <v>320.4652284147967</v>
@@ -6697,16 +6697,16 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I32" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922988</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M32" t="n">
         <v>1034.139376672043</v>
@@ -6730,22 +6730,22 @@
         <v>2113.505005925657</v>
       </c>
       <c r="T32" t="n">
-        <v>2113.505005925657</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U32" t="n">
-        <v>1855.312838196275</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="V32" t="n">
-        <v>1497.823423322524</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="W32" t="n">
-        <v>1497.823423322524</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="X32" t="n">
-        <v>1497.823423322524</v>
+        <v>874.0828745203432</v>
       </c>
       <c r="Y32" t="n">
-        <v>1092.486153277414</v>
+        <v>874.0828745203432</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J33" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K33" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632494</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M33" t="n">
-        <v>751.379528388523</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N33" t="n">
-        <v>1007.699321192656</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O33" t="n">
-        <v>1238.571138752466</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P33" t="n">
-        <v>1553.93617419181</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q33" t="n">
         <v>1667.589004942817</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.0629909260237</v>
+        <v>711.157107313453</v>
       </c>
       <c r="C34" t="n">
-        <v>276.0629909260237</v>
+        <v>711.157107313453</v>
       </c>
       <c r="D34" t="n">
-        <v>112.7462180527944</v>
+        <v>547.8403344402237</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7462180527944</v>
+        <v>547.8403344402237</v>
       </c>
       <c r="F34" t="n">
-        <v>112.7462180527944</v>
+        <v>375.9785602147841</v>
       </c>
       <c r="G34" t="n">
-        <v>112.7462180527944</v>
+        <v>210.6340944148464</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7462180527944</v>
+        <v>74.95081519483637</v>
       </c>
       <c r="I34" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K34" t="n">
-        <v>367.2063020968876</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L34" t="n">
-        <v>854.8603452759933</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M34" t="n">
-        <v>972.703315981149</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N34" t="n">
-        <v>1089.021092194643</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O34" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P34" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q34" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R34" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S34" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.834171281378</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U34" t="n">
-        <v>1491.699495722</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.988028330029</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025422</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5717279483473</v>
+        <v>1127.665844335777</v>
       </c>
       <c r="Y34" t="n">
-        <v>466.2289596380893</v>
+        <v>901.3230760255187</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1146.062640712777</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="C35" t="n">
-        <v>1146.062640712777</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="D35" t="n">
-        <v>722.7700198977777</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="E35" t="n">
-        <v>722.7700198977777</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F35" t="n">
-        <v>722.7700198977777</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G35" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H35" t="n">
         <v>43.43032702581019</v>
@@ -6970,19 +6970,19 @@
         <v>2171.51635129051</v>
       </c>
       <c r="U35" t="n">
-        <v>1915.272054418781</v>
+        <v>2036.460063725048</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.78263954503</v>
+        <v>1678.970648851297</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.78263954503</v>
+        <v>1282.579299151644</v>
       </c>
       <c r="X35" t="n">
-        <v>1146.062640712777</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.062640712777</v>
+        <v>870.8593003193911</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I36" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J36" t="n">
-        <v>383.1970525392674</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K36" t="n">
-        <v>533.2819540266173</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L36" t="n">
-        <v>742.6170386413067</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M36" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P36" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.2067859960825</v>
+        <v>882.1341088926472</v>
       </c>
       <c r="C37" t="n">
-        <v>390.2342228749985</v>
+        <v>710.1615457715632</v>
       </c>
       <c r="D37" t="n">
-        <v>390.2342228749985</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="E37" t="n">
-        <v>224.0260170278521</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F37" t="n">
-        <v>224.0260170278521</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G37" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H37" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I37" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J37" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K37" t="n">
-        <v>494.5860907338699</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L37" t="n">
-        <v>982.2401339129756</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M37" t="n">
-        <v>1100.083104618131</v>
+        <v>774.8787788558885</v>
       </c>
       <c r="N37" t="n">
-        <v>1614.433803673506</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O37" t="n">
-        <v>2034.990534410735</v>
+        <v>1771.069218176148</v>
       </c>
       <c r="P37" t="n">
         <v>2121.000513751125</v>
@@ -7131,16 +7131,16 @@
         <v>1777.843290792059</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.131823400088</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="W37" t="n">
-        <v>1221.279419572601</v>
+        <v>1502.990886964572</v>
       </c>
       <c r="X37" t="n">
-        <v>978.7155230184061</v>
+        <v>1260.426990410377</v>
       </c>
       <c r="Y37" t="n">
-        <v>752.3727547081481</v>
+        <v>1072.300077604713</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>470.3310570125101</v>
+        <v>1170.658579216496</v>
       </c>
       <c r="C38" t="n">
-        <v>43.43032702581019</v>
+        <v>743.7578492297964</v>
       </c>
       <c r="D38" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="E38" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="F38" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G38" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H38" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1880352922992</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L38" t="n">
         <v>721.1044354144763</v>
@@ -7186,10 +7186,10 @@
         <v>1034.139376672043</v>
       </c>
       <c r="N38" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P38" t="n">
         <v>1901.41298331237</v>
@@ -7210,16 +7210,16 @@
         <v>1643.292288226346</v>
       </c>
       <c r="V38" t="n">
-        <v>1285.802873352596</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="W38" t="n">
-        <v>889.4115236529428</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="X38" t="n">
-        <v>477.6915248206901</v>
+        <v>1231.572289394094</v>
       </c>
       <c r="Y38" t="n">
-        <v>470.3310570125101</v>
+        <v>1170.658579216496</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J39" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K39" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L39" t="n">
-        <v>503.9498672632494</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M39" t="n">
-        <v>751.379528388523</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N39" t="n">
-        <v>1007.699321192656</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O39" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P39" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.5814372455631</v>
+        <v>622.9085244099579</v>
       </c>
       <c r="C40" t="n">
-        <v>378.608874124479</v>
+        <v>450.9359612888738</v>
       </c>
       <c r="D40" t="n">
-        <v>215.2921012512498</v>
+        <v>287.6191884156445</v>
       </c>
       <c r="E40" t="n">
-        <v>215.2921012512498</v>
+        <v>287.6191884156445</v>
       </c>
       <c r="F40" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="G40" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="H40" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I40" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J40" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K40" t="n">
-        <v>494.5860907338699</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L40" t="n">
-        <v>982.2401339129756</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M40" t="n">
-        <v>1100.083104618131</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.777296767951</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O40" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P40" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R40" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T40" t="n">
-        <v>1771.834171281378</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="U40" t="n">
-        <v>1766.21794204154</v>
+        <v>1737.149082681871</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.506474649568</v>
+        <v>1455.4376152899</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.654070822081</v>
+        <v>1180.585211462413</v>
       </c>
       <c r="X40" t="n">
-        <v>967.0901742678866</v>
+        <v>1039.417261432282</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.7474059576286</v>
+        <v>813.0744931220236</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1321.432178675252</v>
+        <v>1295.96636354609</v>
       </c>
       <c r="C41" t="n">
-        <v>894.5314486885525</v>
+        <v>1295.96636354609</v>
       </c>
       <c r="D41" t="n">
-        <v>894.5314486885525</v>
+        <v>1171.566350077539</v>
       </c>
       <c r="E41" t="n">
-        <v>468.55450883641</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="F41" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G41" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H41" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J41" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922988</v>
       </c>
       <c r="K41" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L41" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M41" t="n">
         <v>1034.139376672043</v>
@@ -7426,7 +7426,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O41" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P41" t="n">
         <v>1901.41298331237</v>
@@ -7438,25 +7438,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S41" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T41" t="n">
-        <v>1901.484455955729</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.484455955729</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="V41" t="n">
-        <v>1901.484455955729</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="W41" t="n">
-        <v>1901.484455955729</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.769448720362</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="Y41" t="n">
-        <v>1321.432178675252</v>
+        <v>1295.96636354609</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J42" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K42" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L42" t="n">
-        <v>503.9498672632494</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M42" t="n">
-        <v>751.379528388523</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O42" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P42" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R42" t="n">
         <v>1815.841701345204</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.144475277052</v>
+        <v>882.1341088926472</v>
       </c>
       <c r="C43" t="n">
-        <v>918.171912155968</v>
+        <v>710.1615457715632</v>
       </c>
       <c r="D43" t="n">
-        <v>754.8551392827387</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="E43" t="n">
-        <v>588.6469334355922</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F43" t="n">
-        <v>416.7851592101527</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G43" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H43" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I43" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J43" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K43" t="n">
-        <v>169.381764971627</v>
+        <v>309.7291166865539</v>
       </c>
       <c r="L43" t="n">
-        <v>657.0358081507327</v>
+        <v>420.9942662744946</v>
       </c>
       <c r="M43" t="n">
-        <v>1188.41425931871</v>
+        <v>952.3727174424721</v>
       </c>
       <c r="N43" t="n">
-        <v>1304.732035532204</v>
+        <v>1466.723416497847</v>
       </c>
       <c r="O43" t="n">
-        <v>1786.571775797089</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P43" t="n">
         <v>1969.627016373226</v>
@@ -7605,16 +7605,16 @@
         <v>1651.941208281943</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.339647414797</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.48724358731</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.48724358731</v>
+        <v>1127.665844335777</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.144475277052</v>
+        <v>1072.300077604713</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1643.292288226346</v>
+        <v>538.2193684219645</v>
       </c>
       <c r="C44" t="n">
-        <v>1216.391558239647</v>
+        <v>538.2193684219645</v>
       </c>
       <c r="D44" t="n">
-        <v>1216.391558239647</v>
+        <v>114.9267476069648</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.894201708378</v>
+        <v>114.9267476069648</v>
       </c>
       <c r="F44" t="n">
-        <v>722.7700198977777</v>
+        <v>114.9267476069648</v>
       </c>
       <c r="G44" t="n">
-        <v>320.4652284147967</v>
+        <v>114.9267476069648</v>
       </c>
       <c r="H44" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I44" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J44" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873434</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144767</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7669,31 +7669,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q44" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R44" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="S44" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T44" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U44" t="n">
-        <v>1643.292288226346</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V44" t="n">
-        <v>1643.292288226346</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W44" t="n">
-        <v>1643.292288226346</v>
+        <v>1775.125001590857</v>
       </c>
       <c r="X44" t="n">
-        <v>1643.292288226346</v>
+        <v>1363.405002758604</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.292288226346</v>
+        <v>958.0677327134946</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C45" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D45" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E45" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F45" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H45" t="n">
-        <v>399.1049769711162</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I45" t="n">
-        <v>419.8230568544973</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J45" t="n">
-        <v>500.204531106516</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K45" t="n">
-        <v>650.289432593866</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L45" t="n">
-        <v>1098.291688586612</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M45" t="n">
-        <v>1345.721349711886</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.04114251602</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O45" t="n">
-        <v>1832.912960075829</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P45" t="n">
-        <v>2015.066324422021</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.719155173029</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R45" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S45" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T45" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W45" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.8551392827387</v>
+        <v>378.7196630201234</v>
       </c>
       <c r="C46" t="n">
-        <v>754.8551392827387</v>
+        <v>206.7470998990395</v>
       </c>
       <c r="D46" t="n">
-        <v>754.8551392827387</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="E46" t="n">
-        <v>588.6469334355922</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="F46" t="n">
-        <v>416.7851592101527</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G46" t="n">
-        <v>251.440693410215</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H46" t="n">
-        <v>115.7574141902049</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I46" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J46" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K46" t="n">
-        <v>367.2063020968876</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L46" t="n">
-        <v>854.8603452759933</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M46" t="n">
-        <v>972.703315981149</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N46" t="n">
-        <v>1089.021092194643</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O46" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P46" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q46" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R46" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S46" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T46" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.761778812455</v>
+        <v>1594.3561678161</v>
       </c>
       <c r="V46" t="n">
-        <v>1256.050311420484</v>
+        <v>1312.644700424129</v>
       </c>
       <c r="W46" t="n">
-        <v>981.1979075929967</v>
+        <v>1037.792296596642</v>
       </c>
       <c r="X46" t="n">
-        <v>981.1979075929967</v>
+        <v>795.228400042447</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.8551392827387</v>
+        <v>568.885631732189</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0779508869256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>76.16286059094077</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.300959852125</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.5572435284354</v>
+        <v>110.8629952007464</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>83.59215515695277</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>266.5871881157442</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>217.3837025592373</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9333,13 +9333,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>66.74976689850422</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>230.3920808838071</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>229.0653831948793</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>100.5780019579416</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>241.0779508869266</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>99.25130426901455</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>265.9577096813603</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>134.5572435284357</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>229.065383194879</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>63.05619703707595</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>241.0779508869261</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>134.5572435284359</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>215.3292412066305</v>
+        <v>229.0653831948785</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>134.5572435284359</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8227647729905</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>230.3920808838066</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>241.0779508869266</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10758,10 +10758,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>319.61546947025</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>266.5871881157445</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0779508869267</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>187.2489049861871</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>230.3920808838066</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0779508869267</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>141.7650017322493</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>98.02551639974392</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8227647729905</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>230.392080883807</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>349.9906317063521</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>122.7487518234076</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.43123191120419</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>132.8073361150576</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>116.2636910516331</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>30.96843362972857</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
-        <v>217.4883662425835</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.6250556963684</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.6902671187685</v>
+        <v>137.307530603846</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.2817435681513</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9003444702288</v>
+        <v>54.19688509923751</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>136.3635709017072</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>47.69392122918813</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6910211419383</v>
+        <v>79.80965512764169</v>
       </c>
       <c r="H19" t="n">
         <v>134.3264464278099</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.4606959661799</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>289.9485219966906</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6910211419383</v>
+        <v>34.07221108804339</v>
       </c>
       <c r="H22" t="n">
         <v>134.3264464278099</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>42.09688853467875</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.092558885716</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.2645523750966</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>348.2318490120125</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24369,22 +24369,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>41.13210488125375</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>55.7663684882933</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>266.7686352764538</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9003444702288</v>
+        <v>179.8041443906304</v>
       </c>
       <c r="U26" t="n">
         <v>255.6102460520883</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>117.4289878801905</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>95.92339167196138</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.6883982311859</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>289.6780943100063</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>11.00901384537656</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0460627746974</v>
+        <v>133.8181051879658</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>80.04817752646238</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>271.9174443772812</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.981084176036433</v>
+        <v>40.39853300541488</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
-        <v>1.928392149076643</v>
+        <v>121.9045213622808</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>56.50510433266764</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>37.83369694954757</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25408,7 +25408,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>393.9970342145604</v>
+        <v>340.979324268837</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U40" t="n">
-        <v>271.7732618563438</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>100.3819870588231</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>295.9036812729845</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>234.6349416809173</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S43" t="n">
         <v>152.6902671187685</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>218.8988074595771</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>169.2672315634022</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>353.9047874876646</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>203.4830959997535</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.60166025954993</v>
+        <v>95.68107705758385</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>380858.4812032255</v>
+        <v>380858.4812032256</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380858.4812032256</v>
+        <v>380858.4812032257</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401630.0479888428</v>
+        <v>401630.0479888429</v>
       </c>
       <c r="C2" t="n">
         <v>401630.0479888429</v>
@@ -26322,37 +26322,37 @@
         <v>401638.5939822306</v>
       </c>
       <c r="E2" t="n">
-        <v>241283.1315164029</v>
+        <v>241283.1315164028</v>
       </c>
       <c r="F2" t="n">
+        <v>241283.1315164028</v>
+      </c>
+      <c r="G2" t="n">
         <v>241283.1315164027</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>241283.1315164028</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241283.1315164027</v>
       </c>
       <c r="I2" t="n">
         <v>241283.1315164028</v>
       </c>
       <c r="J2" t="n">
-        <v>241283.1315164028</v>
+        <v>241283.1315164027</v>
       </c>
       <c r="K2" t="n">
-        <v>241283.1315164028</v>
+        <v>241283.1315164027</v>
       </c>
       <c r="L2" t="n">
         <v>241283.1315164028</v>
       </c>
       <c r="M2" t="n">
-        <v>241283.1315164028</v>
+        <v>241283.1315164027</v>
       </c>
       <c r="N2" t="n">
-        <v>241283.1315164028</v>
+        <v>241283.1315164027</v>
       </c>
       <c r="O2" t="n">
-        <v>241283.1315164028</v>
+        <v>241283.1315164027</v>
       </c>
       <c r="P2" t="n">
         <v>241283.1315164028</v>
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263608</v>
+        <v>533917.0150263606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.6402017501</v>
+        <v>135287.64020175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>321757.302549922</v>
       </c>
       <c r="D4" t="n">
-        <v>311677.7616960323</v>
+        <v>311677.7616960322</v>
       </c>
       <c r="E4" t="n">
         <v>19381.69295041672</v>
       </c>
       <c r="F4" t="n">
+        <v>19381.69295041672</v>
+      </c>
+      <c r="G4" t="n">
         <v>19381.69295041673</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19381.69295041672</v>
       </c>
       <c r="H4" t="n">
         <v>19381.69295041672</v>
@@ -26441,10 +26441,10 @@
         <v>19381.69295041673</v>
       </c>
       <c r="J4" t="n">
+        <v>19381.69295041673</v>
+      </c>
+      <c r="K4" t="n">
         <v>19381.69295041672</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19381.69295041673</v>
       </c>
       <c r="L4" t="n">
         <v>19381.69295041673</v>
@@ -26459,7 +26459,7 @@
         <v>19381.69295041673</v>
       </c>
       <c r="P4" t="n">
-        <v>19381.69295041672</v>
+        <v>19381.69295041673</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>43928.07778537246</v>
       </c>
       <c r="F5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="G5" t="n">
         <v>43928.07778537246</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="I5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="J5" t="n">
-        <v>43928.07778537243</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="K5" t="n">
         <v>43928.07778537244</v>
       </c>
       <c r="L5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="M5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="N5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="O5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="P5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46245.14543892076</v>
+        <v>46223.43179742459</v>
       </c>
       <c r="C6" t="n">
-        <v>46245.14543892088</v>
+        <v>46223.43179742459</v>
       </c>
       <c r="D6" t="n">
-        <v>22827.82587074622</v>
+        <v>22806.14275065496</v>
       </c>
       <c r="E6" t="n">
-        <v>-355943.654245747</v>
+        <v>-356538.0354460735</v>
       </c>
       <c r="F6" t="n">
-        <v>177973.3607806137</v>
+        <v>177378.9795802872</v>
       </c>
       <c r="G6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.9795802871</v>
       </c>
       <c r="H6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.9795802872</v>
       </c>
       <c r="I6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.9795802871</v>
       </c>
       <c r="J6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.979580287</v>
       </c>
       <c r="K6" t="n">
-        <v>177973.3607806137</v>
+        <v>177378.9795802871</v>
       </c>
       <c r="L6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.9795802872</v>
       </c>
       <c r="M6" t="n">
-        <v>42685.72057886358</v>
+        <v>42091.33937853701</v>
       </c>
       <c r="N6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.979580287</v>
       </c>
       <c r="O6" t="n">
-        <v>177973.3607806136</v>
+        <v>177378.9795802871</v>
       </c>
       <c r="P6" t="n">
-        <v>177973.3607806137</v>
+        <v>177378.9795802872</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>500.9646443007664</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="F3" t="n">
         <v>500.9646443007663</v>
       </c>
       <c r="G3" t="n">
+        <v>500.9646443007662</v>
+      </c>
+      <c r="H3" t="n">
         <v>500.9646443007663</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>500.9646443007663</v>
+      </c>
+      <c r="J3" t="n">
         <v>500.9646443007662</v>
       </c>
-      <c r="I3" t="n">
-        <v>500.9646443007661</v>
-      </c>
-      <c r="J3" t="n">
-        <v>500.9646443007661</v>
-      </c>
       <c r="K3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="N3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="O3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007663</v>
       </c>
     </row>
     <row r="4">
@@ -26801,22 +26801,22 @@
         <v>542.8790878226275</v>
       </c>
       <c r="F4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="G4" t="n">
         <v>542.8790878226275</v>
       </c>
       <c r="H4" t="n">
+        <v>542.8790878226275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>542.8790878226276</v>
+      </c>
+      <c r="J4" t="n">
+        <v>542.8790878226274</v>
+      </c>
+      <c r="K4" t="n">
         <v>542.8790878226273</v>
-      </c>
-      <c r="I4" t="n">
-        <v>542.8790878226274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>542.8790878226272</v>
-      </c>
-      <c r="K4" t="n">
-        <v>542.8790878226274</v>
       </c>
       <c r="L4" t="n">
         <v>542.8790878226274</v>
@@ -26831,7 +26831,7 @@
         <v>542.8790878226274</v>
       </c>
       <c r="P4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>462.8128881052924</v>
+        <v>462.8128881052922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H11" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I11" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J11" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K11" t="n">
-        <v>256.1792215978839</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M11" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O11" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P11" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R11" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S11" t="n">
-        <v>45.8923892743868</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T11" t="n">
-        <v>8.81597077558434</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U11" t="n">
         <v>0.1611142574635629</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H12" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K12" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L12" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M12" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N12" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O12" t="n">
         <v>256.3757458432422</v>
@@ -31861,19 +31861,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R12" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S12" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T12" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718737</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H13" t="n">
-        <v>8.031859379117211</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I13" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L13" t="n">
         <v>134.3077998835202</v>
@@ -31934,25 +31934,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O13" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P13" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.64566128941573</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R13" t="n">
-        <v>40.61919886412442</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S13" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T13" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04927521091482953</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H14" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J14" t="n">
         <v>170.9296401174761</v>
@@ -32004,22 +32004,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M14" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P14" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
@@ -32028,7 +32028,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32074,10 +32074,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K15" t="n">
         <v>174.0001444266162</v>
@@ -32101,16 +32101,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S15" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H16" t="n">
         <v>8.031859379117209</v>
@@ -32156,10 +32156,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32177,7 +32177,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R16" t="n">
         <v>40.61919886412441</v>
@@ -32186,7 +32186,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U16" t="n">
         <v>0.04927521091482952</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I17" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J17" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K17" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P17" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R17" t="n">
         <v>126.5074184424443</v>
@@ -32265,7 +32265,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T17" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U17" t="n">
         <v>0.1611142574635629</v>
@@ -32311,43 +32311,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L18" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q18" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S18" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32414,7 +32414,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R19" t="n">
         <v>40.61919886412441</v>
@@ -32423,7 +32423,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U19" t="n">
         <v>0.04927521091482952</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H20" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I20" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J20" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K20" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L20" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M20" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N20" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O20" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P20" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R20" t="n">
         <v>126.5074184424443</v>
@@ -32502,7 +32502,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U20" t="n">
         <v>0.1611142574635629</v>
@@ -32548,43 +32548,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I21" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K21" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L21" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M21" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O21" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P21" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q21" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S21" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I22" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L22" t="n">
         <v>134.3077998835202</v>
@@ -32651,7 +32651,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R22" t="n">
         <v>40.61919886412441</v>
@@ -32660,7 +32660,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U22" t="n">
         <v>0.04927521091482952</v>
@@ -32703,46 +32703,46 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H23" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I23" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J23" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K23" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L23" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M23" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N23" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O23" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P23" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q23" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R23" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S23" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T23" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I24" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J24" t="n">
         <v>101.8045226687057</v>
       </c>
       <c r="K24" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L24" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M24" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N24" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O24" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P24" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q24" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R24" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S24" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T24" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H25" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I25" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J25" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K25" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L25" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M25" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N25" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O25" t="n">
         <v>127.6884965506281</v>
@@ -32888,19 +32888,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R25" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S25" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T25" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,43 +32943,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I26" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J26" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K26" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L26" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M26" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N26" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O26" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P26" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q26" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R26" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S26" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T26" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I27" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J27" t="n">
         <v>101.8045226687057</v>
@@ -33031,7 +33031,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L27" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M27" t="n">
         <v>273.0257311439175</v>
@@ -33040,7 +33040,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O27" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P27" t="n">
         <v>205.7641385242147</v>
@@ -33049,16 +33049,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R27" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S27" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T27" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H28" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I28" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J28" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K28" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L28" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M28" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N28" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O28" t="n">
         <v>127.6884965506281</v>
@@ -33125,19 +33125,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R28" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S28" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T28" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I29" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J29" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K29" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L29" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M29" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N29" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O29" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P29" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q29" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R29" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S29" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T29" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I30" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J30" t="n">
         <v>101.8045226687057</v>
@@ -33268,7 +33268,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L30" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M30" t="n">
         <v>273.0257311439175</v>
@@ -33277,7 +33277,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O30" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P30" t="n">
         <v>205.7641385242147</v>
@@ -33286,16 +33286,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R30" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S30" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T30" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H31" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I31" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J31" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K31" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L31" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M31" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N31" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O31" t="n">
         <v>127.6884965506281</v>
@@ -33362,19 +33362,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R31" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S31" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T31" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I32" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J32" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K32" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L32" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M32" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N32" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O32" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P32" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q32" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R32" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S32" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T32" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I33" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J33" t="n">
         <v>101.8045226687057</v>
@@ -33505,7 +33505,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L33" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M33" t="n">
         <v>273.0257311439175</v>
@@ -33514,7 +33514,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O33" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P33" t="n">
         <v>205.7641385242147</v>
@@ -33523,16 +33523,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R33" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S33" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T33" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H34" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I34" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J34" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K34" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L34" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M34" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N34" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O34" t="n">
         <v>127.6884965506281</v>
@@ -33599,19 +33599,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R34" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S34" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T34" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,43 +33654,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I35" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J35" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K35" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L35" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M35" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N35" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O35" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P35" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q35" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R35" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S35" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T35" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I36" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J36" t="n">
         <v>101.8045226687057</v>
@@ -33742,7 +33742,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L36" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M36" t="n">
         <v>273.0257311439175</v>
@@ -33751,7 +33751,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O36" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P36" t="n">
         <v>205.7641385242147</v>
@@ -33760,16 +33760,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R36" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S36" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T36" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H37" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I37" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J37" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K37" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L37" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M37" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N37" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O37" t="n">
         <v>127.6884965506281</v>
@@ -33836,19 +33836,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R37" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S37" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T37" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I38" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J38" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K38" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L38" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M38" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N38" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P38" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q38" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R38" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S38" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I39" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J39" t="n">
         <v>101.8045226687057</v>
@@ -33979,7 +33979,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L39" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M39" t="n">
         <v>273.0257311439175</v>
@@ -33988,7 +33988,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O39" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P39" t="n">
         <v>205.7641385242147</v>
@@ -33997,16 +33997,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S39" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T39" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H40" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I40" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K40" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L40" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M40" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N40" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O40" t="n">
         <v>127.6884965506281</v>
@@ -34073,19 +34073,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R40" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S40" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>20.62514236560892</v>
       </c>
       <c r="I41" t="n">
-        <v>77.64196763580016</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J41" t="n">
         <v>170.929640117476</v>
       </c>
       <c r="K41" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L41" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M41" t="n">
         <v>353.6281732606107</v>
       </c>
       <c r="N41" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O41" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P41" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q41" t="n">
         <v>217.4815908833542</v>
       </c>
       <c r="R41" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S41" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T41" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I42" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J42" t="n">
         <v>101.8045226687057</v>
@@ -34216,7 +34216,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L42" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M42" t="n">
         <v>273.0257311439175</v>
@@ -34225,7 +34225,7 @@
         <v>280.2519098338786</v>
       </c>
       <c r="O42" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P42" t="n">
         <v>205.7641385242147</v>
@@ -34234,16 +34234,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R42" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S42" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T42" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H43" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I43" t="n">
         <v>27.16706628437598</v>
       </c>
       <c r="J43" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K43" t="n">
         <v>104.9561992485867</v>
       </c>
       <c r="L43" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M43" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N43" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O43" t="n">
         <v>127.6884965506281</v>
@@ -34310,19 +34310,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R43" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S43" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T43" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H44" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I44" t="n">
-        <v>77.64196763580016</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J44" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978844</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L44" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M44" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N44" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O44" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P44" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R44" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S44" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T44" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I45" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J45" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K45" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L45" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M45" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N45" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O45" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P45" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q45" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R45" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S45" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T45" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H46" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I46" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J46" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K46" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L46" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M46" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N46" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O46" t="n">
         <v>127.6884965506281</v>
@@ -34547,19 +34547,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R46" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S46" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T46" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J11" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K11" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L11" t="n">
         <v>279.5009348758924</v>
       </c>
       <c r="M11" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O11" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R11" t="n">
-        <v>91.47476854764784</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J12" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6009105932829</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M12" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N12" t="n">
-        <v>499.9868325072626</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O12" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P12" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.800839142432</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23212989686961</v>
+        <v>119.3949904878103</v>
       </c>
       <c r="K13" t="n">
-        <v>83.99154479587476</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L13" t="n">
-        <v>274.6899998399441</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M13" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N13" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O13" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P13" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q13" t="n">
         <v>203.9286211285692</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K14" t="n">
         <v>220.4146208030745</v>
@@ -35658,10 +35658,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P14" t="n">
         <v>252.0300333907961</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J15" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K15" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M15" t="n">
         <v>249.9289506315896</v>
@@ -35746,7 +35746,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.3580826708673</v>
+        <v>225.6638343431784</v>
       </c>
       <c r="R15" t="n">
         <v>149.7501983862489</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K16" t="n">
-        <v>83.99154479587474</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L16" t="n">
-        <v>195.9811951447718</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N16" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O16" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P16" t="n">
-        <v>402.7941251653515</v>
+        <v>353.4659551262396</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K17" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M17" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P17" t="n">
         <v>252.0300333907961</v>
@@ -35907,7 +35907,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J18" t="n">
-        <v>298.5771108946097</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K18" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M18" t="n">
         <v>249.9289506315896</v>
@@ -35986,7 +35986,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K19" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L19" t="n">
         <v>492.5798415950563</v>
@@ -36053,16 +36053,16 @@
         <v>536.7459102706844</v>
       </c>
       <c r="N19" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O19" t="n">
-        <v>171.9390759507079</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P19" t="n">
-        <v>402.7941251653515</v>
+        <v>317.2708478943024</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.02609852463077</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J20" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K20" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L20" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M20" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P20" t="n">
         <v>252.0300333907961</v>
@@ -36144,7 +36144,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R20" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J21" t="n">
-        <v>81.1934083353724</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L21" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M21" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N21" t="n">
-        <v>499.9868325072631</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O21" t="n">
         <v>233.2038561210199</v>
@@ -36223,7 +36223,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K22" t="n">
-        <v>83.99154479587473</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L22" t="n">
-        <v>492.5798415950563</v>
+        <v>341.4544231826983</v>
       </c>
       <c r="M22" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N22" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O22" t="n">
-        <v>205.7673110101453</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J23" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K23" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L23" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M23" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N23" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O23" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P23" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q23" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R23" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
-        <v>322.271359222299</v>
+        <v>81.19340833537241</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M24" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N24" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O24" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P24" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431784</v>
       </c>
       <c r="R24" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K25" t="n">
-        <v>83.9915447958747</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L25" t="n">
-        <v>211.6403442568335</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M25" t="n">
-        <v>119.0333037425815</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N25" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O25" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>352.8364766918556</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.9286211285691</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J26" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K26" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L26" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M26" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N26" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P26" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q26" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R26" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
-        <v>81.19340833537237</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K27" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M27" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N27" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O27" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P27" t="n">
-        <v>318.5505408478217</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R27" t="n">
         <v>149.7501983862489</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K28" t="n">
-        <v>83.9915447958747</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L28" t="n">
-        <v>112.3890399878189</v>
+        <v>341.454423182698</v>
       </c>
       <c r="M28" t="n">
         <v>536.7459102706844</v>
@@ -36767,13 +36767,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O28" t="n">
-        <v>168.2455060892796</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P28" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J29" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K29" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L29" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M29" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N29" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O29" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P29" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q29" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R29" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537237</v>
+        <v>322.2713592222985</v>
       </c>
       <c r="K30" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M30" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N30" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O30" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P30" t="n">
-        <v>318.5505408478219</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q30" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R30" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K31" t="n">
-        <v>333.7719580423616</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L31" t="n">
-        <v>327.7182811944494</v>
+        <v>341.4544231826975</v>
       </c>
       <c r="M31" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N31" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>105.1893090522036</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P31" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J32" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K32" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L32" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M32" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O32" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P32" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q32" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R32" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537237</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M33" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N33" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O33" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P33" t="n">
-        <v>318.5505408478219</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q33" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R33" t="n">
         <v>149.7501983862489</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K34" t="n">
-        <v>283.8143095688652</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L34" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M34" t="n">
-        <v>119.0333037425815</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N34" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O34" t="n">
-        <v>486.7068083483686</v>
+        <v>335.5813899360103</v>
       </c>
       <c r="P34" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J35" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K35" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L35" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M35" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N35" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P35" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q35" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R35" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J36" t="n">
-        <v>322.271359222299</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K36" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M36" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N36" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O36" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P36" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q36" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R36" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K37" t="n">
-        <v>333.7719580423616</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L37" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M37" t="n">
-        <v>119.0333037425815</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N37" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O37" t="n">
-        <v>424.8047785224537</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>86.87876701049531</v>
+        <v>353.4659551262398</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.02609852463074</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J38" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K38" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L38" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M38" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N38" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P38" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q38" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R38" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537237</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K39" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M39" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N39" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O39" t="n">
-        <v>474.2818070079466</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P39" t="n">
-        <v>183.993297319386</v>
+        <v>294.856292520133</v>
       </c>
       <c r="Q39" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K40" t="n">
-        <v>333.7719580423616</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L40" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M40" t="n">
-        <v>119.0333037425815</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
-        <v>304.7416082321408</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O40" t="n">
-        <v>486.7068083483686</v>
+        <v>335.5813899360103</v>
       </c>
       <c r="P40" t="n">
-        <v>86.87876701049531</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.09406509183665</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J41" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K41" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L41" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M41" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N41" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O41" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P41" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q41" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R41" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537237</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M42" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N42" t="n">
-        <v>499.9868325072636</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O42" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P42" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R42" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K43" t="n">
-        <v>83.9915447958747</v>
+        <v>225.756546528124</v>
       </c>
       <c r="L43" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M43" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N43" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O43" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P43" t="n">
-        <v>184.9042834102392</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.9286211285691</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.09406509183665</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J44" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.4146208030751</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L44" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M44" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N44" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O44" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P44" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q44" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R44" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J45" t="n">
-        <v>81.19340833537237</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K45" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5275313058044</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M45" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N45" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O45" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P45" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q45" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R45" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K46" t="n">
-        <v>283.8143095688652</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L46" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M46" t="n">
-        <v>119.0333037425815</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N46" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O46" t="n">
-        <v>486.7068083483686</v>
+        <v>335.5813899360107</v>
       </c>
       <c r="P46" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q46" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
